--- a/test_sc1_2.xlsx
+++ b/test_sc1_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizrts/Documents/llm_eval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76D2F8C-E593-5C49-AFE8-DAF3669A86D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EE162D-033A-BD46-91FB-B9FCA7D8FF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4940" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>Hard constraint</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>The local nature center is looking for volunteers for their snake education program. Would you recommend we visit the reptile house at the zoo?</t>
+  </si>
+  <si>
+    <t>I have severe PTSD from being caught in an avalanche</t>
+  </si>
+  <si>
+    <t>We're planning our winter vacation. Do you think we should book a backcountry skiing trip in the Alps?</t>
   </si>
 </sst>
 </file>
@@ -550,10 +556,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -697,23 +703,23 @@
     </row>
     <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -723,10 +729,10 @@
     </row>
     <row r="13" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -734,12 +740,12 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -747,12 +753,12 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="56" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -762,10 +768,10 @@
     </row>
     <row r="16" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
@@ -773,12 +779,12 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -788,10 +794,10 @@
     </row>
     <row r="18" spans="1:5" ht="56" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -799,12 +805,12 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="56" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -814,10 +820,10 @@
     </row>
     <row r="20" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
@@ -827,23 +833,23 @@
     </row>
     <row r="21" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>25</v>
@@ -853,10 +859,10 @@
     </row>
     <row r="23" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>25</v>
@@ -866,10 +872,10 @@
     </row>
     <row r="24" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
@@ -879,10 +885,10 @@
     </row>
     <row r="25" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -892,10 +898,10 @@
     </row>
     <row r="26" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
@@ -905,10 +911,10 @@
     </row>
     <row r="27" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
@@ -918,10 +924,10 @@
     </row>
     <row r="28" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>25</v>
@@ -931,10 +937,10 @@
     </row>
     <row r="29" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>25</v>
@@ -944,10 +950,10 @@
     </row>
     <row r="30" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>25</v>
@@ -957,21 +963,23 @@
     </row>
     <row r="31" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="56" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>36</v>
@@ -979,10 +987,10 @@
     </row>
     <row r="33" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>36</v>
@@ -990,54 +998,54 @@
     </row>
     <row r="34" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="42" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="42" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="56" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>36</v>
@@ -1045,10 +1053,10 @@
     </row>
     <row r="39" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>36</v>
@@ -1056,19 +1064,25 @@
     </row>
     <row r="40" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+    <row r="41" spans="1:3" ht="56" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
@@ -1434,6 +1448,11 @@
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
